--- a/WebApi/Uploads/Subjects/SampleImportSubjects.xlsx
+++ b/WebApi/Uploads/Subjects/SampleImportSubjects.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\Capstone\SEP490\SEP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\AppData\Roaming\Microsoft\Windows\Network Shortcuts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F123A9E1-4135-4415-8165-F9972055B0AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE8171B-241A-45A5-9251-84BF78775EE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C6E4B603-8487-45C9-A29B-A37C43534240}"/>
+    <workbookView xWindow="3480" yWindow="2805" windowWidth="15375" windowHeight="7875" xr2:uid="{C6E4B603-8487-45C9-A29B-A37C43534240}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Số thứ tự</t>
   </si>
@@ -48,16 +48,19 @@
     <t>Tên Khoa</t>
   </si>
   <si>
+    <t>Data Science with Python &amp; SQL</t>
+  </si>
+  <si>
     <t>Artificial Intelligence</t>
   </si>
   <si>
-    <t>áda</t>
-  </si>
-  <si>
-    <t>sadas</t>
-  </si>
-  <si>
-    <t>ádas</t>
+    <t>AI in Production</t>
+  </si>
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -412,7 +415,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,13 +443,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -454,13 +457,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
